--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="69">
   <si>
     <t>Sr. No</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>b22-23MQ430</t>
+  </si>
+  <si>
+    <t>483/22-23</t>
   </si>
 </sst>
 </file>
@@ -827,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1178,159 +1181,164 @@
       <c r="C21" s="35"/>
       <c r="D21" s="10"/>
       <c r="E21" s="35"/>
-      <c r="F21" s="37">
+      <c r="F21" s="35">
         <f>F20-100000</f>
         <v>224920</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="10">
+    <row r="22" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="35"/>
+      <c r="B22" s="36">
+        <v>44998</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="35">
+        <v>26621</v>
+      </c>
+      <c r="F22" s="37">
+        <f>F21+E22</f>
+        <v>251541</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="10">
         <v>5</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B24" s="3">
         <v>44926</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C24" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D24" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E24" s="10">
         <v>10502</v>
       </c>
-      <c r="F23" s="30">
-        <f>E23</f>
+      <c r="F24" s="30">
+        <f>E24</f>
         <v>10502</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10">
+    <row r="26" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10">
         <v>6</v>
       </c>
-      <c r="B25" s="29">
+      <c r="B26" s="29">
         <v>44970</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C26" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D26" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E26" s="27">
         <v>33371.58</v>
       </c>
-      <c r="F25" s="38">
-        <f>E25</f>
+      <c r="F26" s="38">
+        <f>E26</f>
         <v>33371.58</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G26" s="2">
         <f>1279.95+1279.95</f>
         <v>2559.9</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G26" s="2">
-        <f>F25-G25</f>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G27" s="2">
+        <f>F26-G26</f>
         <v>30811.68</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="10">
+    <row r="28" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="10">
         <v>7</v>
       </c>
-      <c r="B27" s="29">
+      <c r="B28" s="29">
         <v>44932</v>
       </c>
-      <c r="C27" s="27">
+      <c r="C28" s="27">
         <v>2110702569</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D28" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="27">
+      <c r="E28" s="27">
         <v>954472.53</v>
       </c>
-      <c r="F27" s="32">
-        <f>E27</f>
+      <c r="F28" s="32">
+        <f>E28</f>
         <v>954472.53</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="10">
+    <row r="30" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="10">
         <v>8</v>
       </c>
-      <c r="B29" s="29">
+      <c r="B30" s="29">
         <v>44946</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C30" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D30" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="27">
+      <c r="E30" s="27">
         <v>23777</v>
       </c>
-      <c r="F29" s="33">
-        <f>E29</f>
+      <c r="F30" s="33">
+        <f>E30</f>
         <v>23777</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="10">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="10">
         <v>9</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B32" s="3">
         <v>44981</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C32" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D32" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E32" s="10">
         <v>16535</v>
       </c>
-      <c r="F31" s="39">
-        <f>E31</f>
+      <c r="F32" s="39">
+        <f>E32</f>
         <v>16535</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="10">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="10">
         <v>10</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B34" s="3">
         <v>44991</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C34" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D34" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E34" s="10">
         <v>38527</v>
       </c>
-      <c r="F33" s="39">
-        <f>E33</f>
+      <c r="F34" s="39">
+        <f>E34</f>
         <v>38527</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E35" s="2">
-        <f>27000</f>
-        <v>27000</v>
-      </c>
-      <c r="F35" s="2">
-        <f>E35*18%</f>
-        <v>4860</v>
-      </c>
-      <c r="G35" s="2">
-        <f>E35+F35</f>
-        <v>31860</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -1348,14 +1356,28 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E37" s="2">
+        <f>27000</f>
+        <v>27000</v>
+      </c>
+      <c r="F37" s="2">
+        <f>E37*18%</f>
+        <v>4860</v>
+      </c>
       <c r="G37" s="2">
-        <f>SUM(G35:G36)</f>
+        <f>E37+F37</f>
+        <v>31860</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G38" s="2">
+        <f>SUM(G36:G37)</f>
         <v>63720</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G39" s="2">
-        <f>G26-G37</f>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G40" s="2">
+        <f>G27-G38</f>
         <v>-32908.32</v>
       </c>
     </row>
@@ -1370,7 +1392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="68">
   <si>
     <t>Sr. No</t>
   </si>
@@ -111,9 +111,6 @@
   </si>
   <si>
     <t>Namrata Rubber Product</t>
-  </si>
-  <si>
-    <t>Bharat Hardware &amp; Co.</t>
   </si>
   <si>
     <t>Sir paid cash</t>
@@ -368,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -445,13 +442,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -525,7 +516,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -830,10 +821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -870,433 +861,425 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="28">
-        <v>44703</v>
-      </c>
-      <c r="C2" s="26">
-        <v>637</v>
-      </c>
-      <c r="D2" s="27" t="s">
+      <c r="B2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="11">
+        <v>1239</v>
+      </c>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>44839</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="10">
+        <v>1520</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1520</v>
+      </c>
+      <c r="G4" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="27">
-        <v>2485</v>
-      </c>
-      <c r="F2" s="1">
-        <f>E2</f>
-        <v>2485</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
-        <v>2</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="11">
-        <v>1239</v>
-      </c>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>3</v>
       </c>
-      <c r="B6" s="3">
-        <v>44839</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="10">
-        <v>1520</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1520</v>
-      </c>
-      <c r="G6" s="31" t="s">
-        <v>27</v>
-      </c>
+      <c r="B6" s="38">
+        <v>44958</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="39">
+        <v>52345</v>
+      </c>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="38">
+        <v>44960</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="39">
+        <v>75249</v>
+      </c>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
-        <v>4</v>
-      </c>
-      <c r="B8" s="40">
-        <v>44958</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="41" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="38">
+        <v>44964</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="41">
-        <v>52345</v>
-      </c>
-      <c r="F8" s="10"/>
+      <c r="E8" s="39">
+        <v>63755</v>
+      </c>
+      <c r="F8" s="10">
+        <f>E6+E7+E8+16359</f>
+        <v>207708</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
-      <c r="B9" s="40">
-        <v>44960</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="41" t="s">
+      <c r="B9" s="38">
+        <v>44967</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="41">
-        <v>75249</v>
-      </c>
-      <c r="F9" s="10"/>
+      <c r="E9" s="39">
+        <v>44946</v>
+      </c>
+      <c r="F9" s="10">
+        <f>F8+E9</f>
+        <v>252654</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
-      <c r="B10" s="40">
-        <v>44964</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="41" t="s">
+      <c r="B10" s="38">
+        <v>44970</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="41">
-        <v>63755</v>
+      <c r="E10" s="39">
+        <v>26491</v>
       </c>
       <c r="F10" s="10">
-        <f>E8+E9+E10+16359</f>
-        <v>207708</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="40">
-        <v>44967</v>
-      </c>
-      <c r="C11" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="41" t="s">
+        <f>F9+E10</f>
+        <v>279145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="33"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33">
+        <f>F10-100000</f>
+        <v>179145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="33"/>
+      <c r="B12" s="34">
+        <v>44978</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="41">
-        <v>44946</v>
-      </c>
-      <c r="F11" s="10">
-        <f>F10+E11</f>
-        <v>252654</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="40">
-        <v>44970</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="41" t="s">
+      <c r="E12" s="33">
+        <v>27181</v>
+      </c>
+      <c r="F12" s="33">
+        <f>F11+E12</f>
+        <v>206326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="33"/>
+      <c r="B13" s="34">
+        <v>44981</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="41">
-        <v>26491</v>
-      </c>
-      <c r="F12" s="10">
-        <f>F11+E12</f>
-        <v>279145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="35"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35">
-        <f>F12-100000</f>
-        <v>179145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="35"/>
-      <c r="B14" s="36">
-        <v>44978</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>51</v>
+      <c r="E13" s="33">
+        <v>53631</v>
+      </c>
+      <c r="F13" s="33">
+        <f>F12+E13</f>
+        <v>259957</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="33"/>
+      <c r="B14" s="34">
+        <v>44985</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>55</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="35">
-        <v>27181</v>
-      </c>
-      <c r="F14" s="35">
+      <c r="E14" s="33">
+        <v>52681</v>
+      </c>
+      <c r="F14" s="33">
         <f>F13+E14</f>
-        <v>206326</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="35"/>
-      <c r="B15" s="36">
-        <v>44981</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>53</v>
+        <v>312638</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="33"/>
+      <c r="B15" s="34">
+        <v>44987</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>56</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="35">
-        <v>53631</v>
-      </c>
-      <c r="F15" s="35">
+      <c r="E15" s="33">
+        <v>30839</v>
+      </c>
+      <c r="F15" s="33">
         <f>F14+E15</f>
-        <v>259957</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="35"/>
-      <c r="B16" s="36">
-        <v>44985</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="35">
-        <v>52681</v>
-      </c>
-      <c r="F16" s="35">
-        <f>F15+E16</f>
-        <v>312638</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="35"/>
-      <c r="B17" s="36">
-        <v>44987</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>57</v>
+        <v>343477</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="33"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33">
+        <f>F15-100000</f>
+        <v>243477</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="33"/>
+      <c r="B17" s="34">
+        <v>44991</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>58</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="35">
-        <v>30839</v>
-      </c>
-      <c r="F17" s="35">
+      <c r="E17" s="33">
+        <v>51601</v>
+      </c>
+      <c r="F17" s="33">
         <f>F16+E17</f>
-        <v>343477</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="35"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35">
-        <f>F17-100000</f>
-        <v>243477</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="35"/>
-      <c r="B19" s="36">
-        <v>44991</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="10" t="s">
+        <v>295078</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="33"/>
+      <c r="B18" s="34">
+        <v>44995</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="35">
-        <v>51601</v>
-      </c>
-      <c r="F19" s="35">
-        <f>F18+E19</f>
-        <v>295078</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="35"/>
-      <c r="B20" s="36">
-        <v>44995</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>62</v>
+      <c r="E18" s="33">
+        <v>29842</v>
+      </c>
+      <c r="F18" s="33">
+        <f>F17+E18</f>
+        <v>324920</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="33"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33">
+        <f>F18-100000</f>
+        <v>224920</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="33"/>
+      <c r="B20" s="34">
+        <v>44998</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>67</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="35">
-        <v>29842</v>
+      <c r="E20" s="33">
+        <v>26621</v>
       </c>
       <c r="F20" s="35">
         <f>F19+E20</f>
-        <v>324920</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="35"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35">
-        <f>F20-100000</f>
-        <v>224920</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="35"/>
-      <c r="B22" s="36">
-        <v>44998</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>68</v>
+        <v>251541</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
+        <v>4</v>
+      </c>
+      <c r="B22" s="3">
+        <v>44926</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="35">
-        <v>26621</v>
-      </c>
-      <c r="F22" s="37">
-        <f>F21+E22</f>
-        <v>251541</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="E22" s="10">
+        <v>10502</v>
+      </c>
+      <c r="F22" s="28">
+        <f>E22</f>
+        <v>10502</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>5</v>
       </c>
-      <c r="B24" s="3">
-        <v>44926</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="10">
-        <v>10502</v>
-      </c>
-      <c r="F24" s="30">
+      <c r="B24" s="27">
+        <v>44970</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="26">
+        <v>33371.58</v>
+      </c>
+      <c r="F24" s="36">
         <f>E24</f>
-        <v>10502</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>33371.58</v>
+      </c>
+      <c r="G24" s="2">
+        <f>1279.95+1279.95</f>
+        <v>2559.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G25" s="2">
+        <f>F24-G24</f>
+        <v>30811.68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>6</v>
       </c>
-      <c r="B26" s="29">
-        <v>44970</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="27">
-        <v>33371.58</v>
-      </c>
-      <c r="F26" s="38">
+      <c r="B26" s="27">
+        <v>44932</v>
+      </c>
+      <c r="C26" s="26">
+        <v>2110702569</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="26">
+        <v>954472.53</v>
+      </c>
+      <c r="F26" s="30">
         <f>E26</f>
-        <v>33371.58</v>
-      </c>
-      <c r="G26" s="2">
-        <f>1279.95+1279.95</f>
-        <v>2559.9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G27" s="2">
-        <f>F26-G26</f>
-        <v>30811.68</v>
+        <v>954472.53</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>7</v>
       </c>
-      <c r="B28" s="29">
-        <v>44932</v>
-      </c>
-      <c r="C28" s="27">
-        <v>2110702569</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="27">
-        <v>954472.53</v>
-      </c>
-      <c r="F28" s="32">
+      <c r="B28" s="27">
+        <v>44946</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="26">
+        <v>23777</v>
+      </c>
+      <c r="F28" s="31">
         <f>E28</f>
-        <v>954472.53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>23777</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
         <v>8</v>
       </c>
-      <c r="B30" s="29">
-        <v>44946</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="27">
-        <v>23777</v>
-      </c>
-      <c r="F30" s="33">
+      <c r="B30" s="3">
+        <v>44981</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="10">
+        <v>16535</v>
+      </c>
+      <c r="F30" s="37">
         <f>E30</f>
-        <v>23777</v>
+        <v>16535</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1304,81 +1287,20 @@
         <v>9</v>
       </c>
       <c r="B32" s="3">
-        <v>44981</v>
+        <v>44991</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="E32" s="10">
-        <v>16535</v>
-      </c>
-      <c r="F32" s="39">
+        <v>38527</v>
+      </c>
+      <c r="F32" s="37">
         <f>E32</f>
-        <v>16535</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="10">
-        <v>10</v>
-      </c>
-      <c r="B34" s="3">
-        <v>44991</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E34" s="10">
         <v>38527</v>
-      </c>
-      <c r="F34" s="39">
-        <f>E34</f>
-        <v>38527</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E36" s="2">
-        <f>27000</f>
-        <v>27000</v>
-      </c>
-      <c r="F36" s="2">
-        <f>E36*18%</f>
-        <v>4860</v>
-      </c>
-      <c r="G36" s="2">
-        <f>E36+F36</f>
-        <v>31860</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E37" s="2">
-        <f>27000</f>
-        <v>27000</v>
-      </c>
-      <c r="F37" s="2">
-        <f>E37*18%</f>
-        <v>4860</v>
-      </c>
-      <c r="G37" s="2">
-        <f>E37+F37</f>
-        <v>31860</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G38" s="2">
-        <f>SUM(G36:G37)</f>
-        <v>63720</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G40" s="2">
-        <f>G27-G38</f>
-        <v>-32908.32</v>
       </c>
     </row>
   </sheetData>
@@ -1393,7 +1315,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1470,7 +1392,7 @@
         <v>44932</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>16</v>
@@ -1486,7 +1408,7 @@
         <v>44974</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>16</v>
@@ -1502,7 +1424,7 @@
         <v>44988</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>16</v>
@@ -1521,7 +1443,7 @@
         <v>44989</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>16</v>
@@ -1537,7 +1459,7 @@
         <v>44989</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>16</v>
@@ -1553,7 +1475,7 @@
         <v>44998</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>16</v>
@@ -1569,7 +1491,7 @@
         <v>44998</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>16</v>
@@ -1585,7 +1507,7 @@
         <v>44998</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>16</v>
@@ -1616,7 +1538,7 @@
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1638,15 +1560,15 @@
         <v>45052.399999999994</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="42"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="44"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="42"/>
       <c r="F16" s="15">
         <f>F15-24800</f>
         <v>20252.399999999994</v>
@@ -1700,10 +1622,10 @@
         <v>44861</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="16" t="s">
         <v>34</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>35</v>
       </c>
       <c r="E20" s="18">
         <v>2689515</v>
@@ -1721,7 +1643,7 @@
       <c r="E21" s="21"/>
       <c r="F21" s="22"/>
       <c r="J21" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1732,17 +1654,17 @@
         <v>44902</v>
       </c>
       <c r="C22" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="16" t="s">
         <v>32</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>33</v>
       </c>
       <c r="E22" s="18">
         <v>2021558.3</v>
       </c>
       <c r="F22" s="15">
-        <f>E22-175496-500000</f>
-        <v>1346062.3</v>
+        <f>E22-175496-500000-800000</f>
+        <v>546062.30000000005</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1761,10 +1683,10 @@
         <v>44905</v>
       </c>
       <c r="C24" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>29</v>
       </c>
       <c r="E24" s="18">
         <v>21122</v>
@@ -1774,7 +1696,7 @@
         <v>21122</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1793,10 +1715,10 @@
         <v>44984</v>
       </c>
       <c r="C26" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>55</v>
       </c>
       <c r="E26" s="18">
         <v>414180</v>
@@ -1821,7 +1743,7 @@
       <c r="B28" s="17"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E28" s="18">
         <v>2146998.2000000002</v>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
+    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="68">
   <si>
     <t>Sr. No</t>
   </si>
@@ -179,9 +179,6 @@
     <t>447/22-23</t>
   </si>
   <si>
-    <t>b22-23MQ418</t>
-  </si>
-  <si>
     <t>76ID2310660662</t>
   </si>
   <si>
@@ -206,9 +203,6 @@
     <t>467/22-23</t>
   </si>
   <si>
-    <t>b22-23MQ424</t>
-  </si>
-  <si>
     <t>472/22-23</t>
   </si>
   <si>
@@ -224,19 +218,25 @@
     <t>b22-23MQ425</t>
   </si>
   <si>
-    <t>b22-23MQ426</t>
-  </si>
-  <si>
     <t>b22-23MQ428</t>
   </si>
   <si>
-    <t>b22-23MQ429</t>
-  </si>
-  <si>
-    <t>b22-23MQ430</t>
-  </si>
-  <si>
     <t>483/22-23</t>
+  </si>
+  <si>
+    <t>2022-23/14698</t>
+  </si>
+  <si>
+    <t>Print House</t>
+  </si>
+  <si>
+    <t>2022-23/15121</t>
+  </si>
+  <si>
+    <t>b22-23MQ431</t>
+  </si>
+  <si>
+    <t>b22-23MQ432</t>
   </si>
 </sst>
 </file>
@@ -821,10 +821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1003,10 +1003,10 @@
     </row>
     <row r="11" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="33"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
       <c r="F11" s="33">
         <f>F10-100000</f>
         <v>179145</v>
@@ -1014,16 +1014,16 @@
     </row>
     <row r="12" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33"/>
-      <c r="B12" s="34">
+      <c r="B12" s="38">
         <v>44978</v>
       </c>
-      <c r="C12" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="10" t="s">
+      <c r="C12" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="39">
         <v>27181</v>
       </c>
       <c r="F12" s="33">
@@ -1033,16 +1033,16 @@
     </row>
     <row r="13" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="33"/>
-      <c r="B13" s="34">
+      <c r="B13" s="38">
         <v>44981</v>
       </c>
-      <c r="C13" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="10" t="s">
+      <c r="C13" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="39">
         <v>53631</v>
       </c>
       <c r="F13" s="33">
@@ -1052,16 +1052,16 @@
     </row>
     <row r="14" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="33"/>
-      <c r="B14" s="34">
+      <c r="B14" s="38">
         <v>44985</v>
       </c>
-      <c r="C14" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="C14" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="39">
         <v>52681</v>
       </c>
       <c r="F14" s="33">
@@ -1071,16 +1071,16 @@
     </row>
     <row r="15" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="33"/>
-      <c r="B15" s="34">
+      <c r="B15" s="38">
         <v>44987</v>
       </c>
-      <c r="C15" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="10" t="s">
+      <c r="C15" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="39">
         <v>30839</v>
       </c>
       <c r="F15" s="33">
@@ -1090,10 +1090,10 @@
     </row>
     <row r="16" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="33"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="33"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
       <c r="F16" s="33">
         <f>F15-100000</f>
         <v>243477</v>
@@ -1105,7 +1105,7 @@
         <v>44991</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>25</v>
@@ -1124,7 +1124,7 @@
         <v>44995</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>25</v>
@@ -1154,7 +1154,7 @@
         <v>44998</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>25</v>
@@ -1162,145 +1162,196 @@
       <c r="E20" s="33">
         <v>26621</v>
       </c>
-      <c r="F20" s="35">
+      <c r="F20" s="33">
         <f>F19+E20</f>
         <v>251541</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
+    <row r="21" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="33"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="35">
+        <f>F20-151541</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="10">
         <v>4</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B23" s="3">
         <v>44926</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D23" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E23" s="10">
         <v>10502</v>
       </c>
-      <c r="F22" s="28">
-        <f>E22</f>
+      <c r="F23" s="28">
+        <f>E23</f>
         <v>10502</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10">
+    <row r="25" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10">
         <v>5</v>
       </c>
-      <c r="B24" s="27">
+      <c r="B25" s="27">
         <v>44970</v>
       </c>
-      <c r="C24" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="26" t="s">
+      <c r="C25" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E25" s="26">
         <v>33371.58</v>
       </c>
-      <c r="F24" s="36">
-        <f>E24</f>
+      <c r="F25" s="36">
+        <f>E25</f>
         <v>33371.58</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G25" s="2">
         <f>1279.95+1279.95</f>
         <v>2559.9</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G25" s="2">
-        <f>F24-G24</f>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G26" s="2">
+        <f>F25-G25</f>
         <v>30811.68</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="10">
+    <row r="27" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="10">
         <v>6</v>
       </c>
-      <c r="B26" s="27">
+      <c r="B27" s="27">
         <v>44932</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C27" s="26">
         <v>2110702569</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D27" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E27" s="26">
         <v>954472.53</v>
       </c>
-      <c r="F26" s="30">
-        <f>E26</f>
+      <c r="F27" s="30">
+        <f>E27</f>
         <v>954472.53</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="10">
+    <row r="29" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="10">
         <v>7</v>
       </c>
-      <c r="B28" s="27">
+      <c r="B29" s="27">
         <v>44946</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C29" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D29" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="26">
+      <c r="E29" s="26">
         <v>23777</v>
       </c>
-      <c r="F28" s="31">
-        <f>E28</f>
+      <c r="F29" s="31">
+        <f>E29</f>
         <v>23777</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="10">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="10">
         <v>8</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B31" s="3">
         <v>44981</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="10" t="s">
+      <c r="C31" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E31" s="10">
         <v>16535</v>
       </c>
-      <c r="F30" s="37">
-        <f>E30</f>
+      <c r="F31" s="37">
+        <f>E31</f>
         <v>16535</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="10">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="10">
         <v>9</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B33" s="3">
         <v>44991</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E32" s="10">
+      <c r="C33" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="10">
         <v>38527</v>
       </c>
-      <c r="F32" s="37">
-        <f>E32</f>
+      <c r="F33" s="37">
+        <f>E33</f>
         <v>38527</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="10">
+        <v>10</v>
+      </c>
+      <c r="B35" s="3">
+        <v>44998</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="10">
+        <v>6195</v>
+      </c>
+      <c r="F35" s="37">
+        <f>E35</f>
+        <v>6195</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="10"/>
+      <c r="B36" s="3">
+        <v>45008</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="10">
+        <v>6195</v>
+      </c>
+      <c r="F36" s="37">
+        <f>E36</f>
+        <v>6195</v>
       </c>
     </row>
   </sheetData>
@@ -1312,10 +1363,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1325,9 +1376,10 @@
     <col min="3" max="3" width="15.44140625" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="45.88671875" style="13" customWidth="1"/>
     <col min="5" max="5" width="13.88671875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="18.77734375" style="13" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" style="13" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="13"/>
+    <col min="8" max="8" width="9.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1405,443 +1457,392 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="24">
-        <v>44974</v>
+        <v>44989</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="25">
-        <v>31713.68</v>
+        <v>62606.080000000002</v>
       </c>
       <c r="F6" s="23"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="24">
-        <v>44988</v>
+        <v>44998</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="25">
-        <v>68971</v>
-      </c>
-      <c r="F7" s="23">
-        <f>E5+E6+E7</f>
-        <v>101746.68</v>
-      </c>
+        <v>15389.56</v>
+      </c>
+      <c r="F7" s="23"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="24">
-        <v>44989</v>
+        <v>45008</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="25">
-        <v>62606.080000000002</v>
+        <v>86222.6</v>
       </c>
       <c r="F8" s="23"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="24">
-        <v>44989</v>
+        <v>45008</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="25">
-        <v>80084.240000000005</v>
-      </c>
-      <c r="F9" s="23"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="24">
-        <v>44998</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="25">
-        <v>15389.56</v>
-      </c>
-      <c r="F10" s="23"/>
+        <v>76430.960000000006</v>
+      </c>
+      <c r="F9" s="23">
+        <f>E5+E6+E7+E8+E9</f>
+        <v>241711.2</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="24">
-        <v>44998</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="25">
-        <v>198913.8</v>
-      </c>
-      <c r="F11" s="23"/>
+      <c r="A11" s="7">
+        <v>3</v>
+      </c>
+      <c r="B11" s="17">
+        <v>44770</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="18">
+        <v>23800.6</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="13" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="24">
-        <v>44998</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="25">
-        <v>116965.1</v>
-      </c>
-      <c r="F12" s="23">
-        <f>E5+E6+E7+E8+E9+E10+E11+E12</f>
-        <v>575705.46</v>
+      <c r="B12" s="17">
+        <v>44763</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="18">
+        <v>21251.8</v>
+      </c>
+      <c r="F12" s="15">
+        <f>E11+E12</f>
+        <v>45052.399999999994</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="15">
+        <f>F12-24800</f>
+        <v>20252.399999999994</v>
+      </c>
+      <c r="G13" s="13">
+        <v>24000</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>3</v>
-      </c>
-      <c r="B14" s="17">
-        <v>44770</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="18">
-        <v>23800.6</v>
-      </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="13" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="22"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>4</v>
+      </c>
+      <c r="B15" s="17">
+        <v>44841</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="18">
+        <v>64917.7</v>
+      </c>
+      <c r="F15" s="15">
+        <f>E15-50000</f>
+        <v>14917.699999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="22"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>5</v>
+      </c>
+      <c r="B17" s="17">
+        <v>44861</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="18">
+        <v>2689515</v>
+      </c>
+      <c r="F17" s="15">
+        <f>E17-2512515</f>
+        <v>177000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="22"/>
+      <c r="J18" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>6</v>
+      </c>
+      <c r="B19" s="17">
+        <v>44902</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="18">
+        <v>2021558.3</v>
+      </c>
+      <c r="F19" s="15">
+        <f>E19-175496-500000-800000</f>
+        <v>546062.30000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="22"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>7</v>
+      </c>
+      <c r="B21" s="17">
+        <v>44905</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="18">
+        <v>21122</v>
+      </c>
+      <c r="F21" s="15">
+        <f>E21</f>
+        <v>21122</v>
+      </c>
+      <c r="G21" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="17">
-        <v>44763</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="18">
-        <v>21251.8</v>
-      </c>
-      <c r="F15" s="15">
-        <f>E14+E15</f>
-        <v>45052.399999999994</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="40"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="15">
-        <f>F15-24800</f>
-        <v>20252.399999999994</v>
-      </c>
-      <c r="G16" s="13">
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="22"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="22"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>8</v>
+      </c>
+      <c r="B23" s="17">
+        <v>44984</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="18">
+        <v>414180</v>
+      </c>
+      <c r="F23" s="15">
+        <f>E23</f>
+        <v>414180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="22"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>9</v>
+      </c>
+      <c r="B25" s="17"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="18">
+        <v>2146998.2000000002</v>
+      </c>
+      <c r="F25" s="15"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="22"/>
+    </row>
+    <row r="27" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="17">
-        <v>44841</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="18">
-        <v>64917.7</v>
-      </c>
-      <c r="F18" s="15">
-        <f>E18-50000</f>
-        <v>14917.699999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="22"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="E27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="17">
-        <v>44861</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="18">
-        <v>2689515</v>
-      </c>
-      <c r="F20" s="15">
-        <f>E20-2512515</f>
-        <v>177000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="22"/>
-      <c r="J21" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
-        <v>6</v>
-      </c>
-      <c r="B22" s="17">
-        <v>44902</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="18">
-        <v>2021558.3</v>
-      </c>
-      <c r="F22" s="15">
-        <f>E22-175496-500000-800000</f>
-        <v>546062.30000000005</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="22"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
-        <v>7</v>
-      </c>
-      <c r="B24" s="17">
-        <v>44905</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="18">
-        <v>21122</v>
-      </c>
-      <c r="F24" s="15">
-        <f>E24</f>
-        <v>21122</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="22"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
-        <v>8</v>
-      </c>
-      <c r="B26" s="17">
-        <v>44984</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="18">
-        <v>414180</v>
-      </c>
-      <c r="F26" s="15">
-        <f>E26</f>
-        <v>414180</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="22"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
-        <v>9</v>
-      </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="18">
-        <v>2146998.2000000002</v>
-      </c>
-      <c r="F28" s="15"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="22"/>
-    </row>
-    <row r="30" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="B28" s="8">
+        <v>44573</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="7">
+        <v>20000</v>
+      </c>
+      <c r="F28" s="7">
+        <v>29641.599999999999</v>
+      </c>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="7">
         <v>2</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="7">
-        <v>1</v>
-      </c>
-      <c r="B31" s="8">
+      <c r="B29" s="8">
         <v>44573</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="7" t="s">
+      <c r="C29" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E29" s="7">
+        <v>10000</v>
+      </c>
+      <c r="F29" s="7">
+        <v>52362.5</v>
+      </c>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
+      <c r="B30" s="8">
+        <v>44954</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7">
         <v>20000</v>
       </c>
-      <c r="F31" s="7">
-        <v>29641.599999999999</v>
-      </c>
-      <c r="G31" s="7"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="7">
-        <v>2</v>
-      </c>
-      <c r="B32" s="8">
-        <v>44573</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="7">
-        <v>10000</v>
-      </c>
-      <c r="F32" s="7">
-        <v>52362.5</v>
-      </c>
-      <c r="G32" s="7"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="7"/>
-      <c r="B33" s="8">
-        <v>44954</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7">
-        <v>20000</v>
-      </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7">
-        <f>F32+F31-E31-E32-E33</f>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7">
+        <f>F29+F28-E28-E29-E30</f>
         <v>32004.100000000006</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A13:E13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="68">
   <si>
     <t>Sr. No</t>
   </si>
@@ -185,9 +185,6 @@
     <t>458/22-23</t>
   </si>
   <si>
-    <t>SLH/3591</t>
-  </si>
-  <si>
     <t>460/22-23</t>
   </si>
   <si>
@@ -237,6 +234,9 @@
   </si>
   <si>
     <t>b22-23MQ432</t>
+  </si>
+  <si>
+    <t>Bhagyalaxmi Electricals</t>
   </si>
 </sst>
 </file>
@@ -823,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1037,7 +1037,7 @@
         <v>44981</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="39" t="s">
         <v>25</v>
@@ -1056,7 +1056,7 @@
         <v>44985</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14" s="39" t="s">
         <v>25</v>
@@ -1075,7 +1075,7 @@
         <v>44987</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" s="39" t="s">
         <v>25</v>
@@ -1105,7 +1105,7 @@
         <v>44991</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>25</v>
@@ -1124,7 +1124,7 @@
         <v>44995</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>25</v>
@@ -1154,7 +1154,7 @@
         <v>44998</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>25</v>
@@ -1277,34 +1277,34 @@
         <v>8</v>
       </c>
       <c r="B31" s="3">
-        <v>44981</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>50</v>
+        <v>44987</v>
+      </c>
+      <c r="C31" s="10">
+        <v>22230489</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="E31" s="10">
-        <v>16535</v>
-      </c>
-      <c r="F31" s="37">
+        <v>31382</v>
+      </c>
+      <c r="F31" s="10">
         <f>E31</f>
-        <v>16535</v>
+        <v>31382</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B33" s="3">
         <v>44991</v>
       </c>
       <c r="C33" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>57</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>58</v>
       </c>
       <c r="E33" s="10">
         <v>38527</v>
@@ -1316,16 +1316,16 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B35" s="3">
         <v>44998</v>
       </c>
       <c r="C35" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>63</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>64</v>
       </c>
       <c r="E35" s="10">
         <v>6195</v>
@@ -1341,10 +1341,10 @@
         <v>45008</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E36" s="10">
         <v>6195</v>
@@ -1365,8 +1365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1460,7 +1460,7 @@
         <v>44989</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>16</v>
@@ -1476,7 +1476,7 @@
         <v>44998</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>16</v>
@@ -1492,7 +1492,7 @@
         <v>45008</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>16</v>
@@ -1508,7 +1508,7 @@
         <v>45008</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>16</v>
@@ -1716,10 +1716,10 @@
         <v>44984</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="16" t="s">
         <v>52</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>53</v>
       </c>
       <c r="E23" s="18">
         <v>414180</v>
